--- a/raw_data/corrData.xlsx
+++ b/raw_data/corrData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmodi\Desktop\data_journalism_d3\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5018440F-91C8-47EE-83A8-4C3C9F36A378}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8946667-E72E-4463-8A92-6E7B63D9A090}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11040" xr2:uid="{AB688106-4EBE-47DB-9B46-785F6DE2E117}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>EmployedPop_moe&gt;16years</t>
   </si>
   <si>
-    <t>UnemployedPop&gt;16years</t>
-  </si>
-  <si>
     <t>UnemployedPop_moe&gt;16years</t>
   </si>
   <si>
@@ -562,6 +559,9 @@
   </si>
   <si>
     <t>(18.220833, -66.590149)</t>
+  </si>
+  <si>
+    <t>UnemployedPop</t>
   </si>
 </sst>
 </file>
@@ -916,7 +916,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -950,52 +950,52 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2">
         <v>4849377</v>
@@ -1066,7 +1066,7 @@
         <v>15.1</v>
       </c>
       <c r="W2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X2">
         <v>3.2</v>
@@ -1080,10 +1080,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
       </c>
       <c r="D3">
         <v>736732</v>
@@ -1143,7 +1143,7 @@
         <v>86.7</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X3">
         <v>6</v>
@@ -1157,10 +1157,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4">
         <v>6731484</v>
@@ -1220,7 +1220,7 @@
         <v>86.7</v>
       </c>
       <c r="W4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X4">
         <v>3.5</v>
@@ -1234,10 +1234,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
       </c>
       <c r="D5">
         <v>2966369</v>
@@ -1297,7 +1297,7 @@
         <v>85.6</v>
       </c>
       <c r="W5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X5">
         <v>3.5</v>
@@ -1311,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
       </c>
       <c r="D6">
         <v>38802500</v>
@@ -1374,7 +1374,7 @@
         <v>86.2</v>
       </c>
       <c r="W6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X6">
         <v>3.5</v>
@@ -1388,10 +1388,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
       </c>
       <c r="D7">
         <v>5355866</v>
@@ -1451,7 +1451,7 @@
         <v>88.1</v>
       </c>
       <c r="W7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X7">
         <v>3.1</v>
@@ -1465,10 +1465,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
       </c>
       <c r="D8">
         <v>3596677</v>
@@ -1528,7 +1528,7 @@
         <v>92.4</v>
       </c>
       <c r="W8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X8">
         <v>3.8</v>
@@ -1542,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
       </c>
       <c r="D9">
         <v>935614</v>
@@ -1605,7 +1605,7 @@
         <v>92.6</v>
       </c>
       <c r="W9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X9">
         <v>3.1</v>
@@ -1619,10 +1619,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
       </c>
       <c r="D10">
         <v>658893</v>
@@ -1682,7 +1682,7 @@
         <v>11.8</v>
       </c>
       <c r="W10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X10">
         <v>2.7</v>
@@ -1696,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
       </c>
       <c r="D11">
         <v>19893297</v>
@@ -1759,7 +1759,7 @@
         <v>83.6</v>
       </c>
       <c r="W11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X11">
         <v>3.4</v>
@@ -1773,10 +1773,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
       </c>
       <c r="D12">
         <v>10097343</v>
@@ -1836,7 +1836,7 @@
         <v>80.7</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X12">
         <v>4</v>
@@ -1850,10 +1850,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
       </c>
       <c r="D13">
         <v>1419561</v>
@@ -1913,7 +1913,7 @@
         <v>92.9</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X13">
         <v>2.9</v>
@@ -1927,10 +1927,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
       </c>
       <c r="D14">
         <v>1634464</v>
@@ -1990,7 +1990,7 @@
         <v>85</v>
       </c>
       <c r="W14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X14">
         <v>2.4</v>
@@ -2004,10 +2004,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
       </c>
       <c r="D15">
         <v>12880580</v>
@@ -2067,7 +2067,7 @@
         <v>89.5</v>
       </c>
       <c r="W15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X15">
         <v>3.3</v>
@@ -2081,10 +2081,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
       </c>
       <c r="D16">
         <v>6596855</v>
@@ -2144,7 +2144,7 @@
         <v>86.3</v>
       </c>
       <c r="W16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X16">
         <v>3.5</v>
@@ -2158,10 +2158,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
       </c>
       <c r="D17">
         <v>3107126</v>
@@ -2221,7 +2221,7 @@
         <v>93.2</v>
       </c>
       <c r="W17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X17">
         <v>2</v>
@@ -2235,10 +2235,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
         <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
       </c>
       <c r="D18">
         <v>2904021</v>
@@ -2298,7 +2298,7 @@
         <v>86.3</v>
       </c>
       <c r="W18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X18">
         <v>2.9</v>
@@ -2312,10 +2312,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
         <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
       </c>
       <c r="D19">
         <v>4413457</v>
@@ -2375,7 +2375,7 @@
         <v>91.2</v>
       </c>
       <c r="W19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X19">
         <v>2.9</v>
@@ -2389,10 +2389,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
       </c>
       <c r="D20">
         <v>4649676</v>
@@ -2452,7 +2452,7 @@
         <v>82.6</v>
       </c>
       <c r="W20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X20">
         <v>3.1</v>
@@ -2466,10 +2466,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
       </c>
       <c r="D21">
         <v>1330089</v>
@@ -2529,7 +2529,7 @@
         <v>90</v>
       </c>
       <c r="W21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X21">
         <v>3.2</v>
@@ -2543,10 +2543,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
       </c>
       <c r="D22">
         <v>5976407</v>
@@ -2606,7 +2606,7 @@
         <v>92</v>
       </c>
       <c r="W22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X22">
         <v>2.5</v>
@@ -2620,10 +2620,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
       </c>
       <c r="D23">
         <v>6745408</v>
@@ -2683,7 +2683,7 @@
         <v>96</v>
       </c>
       <c r="W23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X23">
         <v>3.2</v>
@@ -2697,10 +2697,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
       </c>
       <c r="D24">
         <v>9909877</v>
@@ -2760,7 +2760,7 @@
         <v>90.7</v>
       </c>
       <c r="W24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X24">
         <v>3.5</v>
@@ -2774,10 +2774,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
       </c>
       <c r="D25">
         <v>5457173</v>
@@ -2837,7 +2837,7 @@
         <v>93.3</v>
       </c>
       <c r="W25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X25">
         <v>2.2999999999999998</v>
@@ -2851,10 +2851,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
         <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
       </c>
       <c r="D26">
         <v>2994079</v>
@@ -2914,7 +2914,7 @@
         <v>83.1</v>
       </c>
       <c r="W26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X26">
         <v>4.5</v>
@@ -2928,10 +2928,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
         <v>100</v>
-      </c>
-      <c r="C27" t="s">
-        <v>101</v>
       </c>
       <c r="D27">
         <v>6063589</v>
@@ -2991,7 +2991,7 @@
         <v>88.4</v>
       </c>
       <c r="W27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X27">
         <v>2.9</v>
@@ -3005,10 +3005,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
         <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>104</v>
       </c>
       <c r="D28">
         <v>1023579</v>
@@ -3068,7 +3068,7 @@
         <v>88.4</v>
       </c>
       <c r="W28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X28">
         <v>3.1</v>
@@ -3082,10 +3082,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
         <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>107</v>
       </c>
       <c r="D29">
         <v>1881503</v>
@@ -3145,7 +3145,7 @@
         <v>88.5</v>
       </c>
       <c r="W29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X29">
         <v>2.5</v>
@@ -3159,10 +3159,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
         <v>109</v>
-      </c>
-      <c r="C30" t="s">
-        <v>110</v>
       </c>
       <c r="D30">
         <v>2839099</v>
@@ -3222,7 +3222,7 @@
         <v>85</v>
       </c>
       <c r="W30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X30">
         <v>4.5</v>
@@ -3236,10 +3236,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
         <v>112</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
       </c>
       <c r="D31">
         <v>1326813</v>
@@ -3299,7 +3299,7 @@
         <v>12.7</v>
       </c>
       <c r="W31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X31">
         <v>2.8</v>
@@ -3313,10 +3313,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
         <v>115</v>
-      </c>
-      <c r="C32" t="s">
-        <v>116</v>
       </c>
       <c r="D32">
         <v>8938175</v>
@@ -3376,7 +3376,7 @@
         <v>88.5</v>
       </c>
       <c r="W32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X32">
         <v>3.4</v>
@@ -3390,10 +3390,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
         <v>118</v>
-      </c>
-      <c r="C33" t="s">
-        <v>119</v>
       </c>
       <c r="D33">
         <v>2085572</v>
@@ -3453,7 +3453,7 @@
         <v>85.9</v>
       </c>
       <c r="W33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X33">
         <v>3.5</v>
@@ -3467,10 +3467,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
         <v>121</v>
-      </c>
-      <c r="C34" t="s">
-        <v>122</v>
       </c>
       <c r="D34">
         <v>19746227</v>
@@ -3530,7 +3530,7 @@
         <v>88.9</v>
       </c>
       <c r="W34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X34">
         <v>3.9</v>
@@ -3544,10 +3544,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
         <v>124</v>
-      </c>
-      <c r="C35" t="s">
-        <v>125</v>
       </c>
       <c r="D35">
         <v>9943964</v>
@@ -3607,7 +3607,7 @@
         <v>85</v>
       </c>
       <c r="W35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X35">
         <v>3.2</v>
@@ -3621,10 +3621,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
         <v>127</v>
-      </c>
-      <c r="C36" t="s">
-        <v>128</v>
       </c>
       <c r="D36">
         <v>739482</v>
@@ -3684,7 +3684,7 @@
         <v>92.4</v>
       </c>
       <c r="W36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X36">
         <v>2.2000000000000002</v>
@@ -3698,10 +3698,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
         <v>130</v>
-      </c>
-      <c r="C37" t="s">
-        <v>131</v>
       </c>
       <c r="D37">
         <v>11594163</v>
@@ -3761,7 +3761,7 @@
         <v>90.9</v>
       </c>
       <c r="W37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X37">
         <v>3.5</v>
@@ -3775,10 +3775,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" t="s">
         <v>133</v>
-      </c>
-      <c r="C38" t="s">
-        <v>134</v>
       </c>
       <c r="D38">
         <v>3878051</v>
@@ -3838,7 +3838,7 @@
         <v>87.1</v>
       </c>
       <c r="W38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X38">
         <v>2.7</v>
@@ -3852,10 +3852,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
         <v>136</v>
-      </c>
-      <c r="C39" t="s">
-        <v>137</v>
       </c>
       <c r="D39">
         <v>3970239</v>
@@ -3915,7 +3915,7 @@
         <v>90.3</v>
       </c>
       <c r="W39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X39">
         <v>2.4</v>
@@ -3929,10 +3929,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
         <v>139</v>
-      </c>
-      <c r="C40" t="s">
-        <v>140</v>
       </c>
       <c r="D40">
         <v>12787209</v>
@@ -3992,7 +3992,7 @@
         <v>90.8</v>
       </c>
       <c r="W40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X40">
         <v>3</v>
@@ -4006,10 +4006,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
         <v>142</v>
-      </c>
-      <c r="C41" t="s">
-        <v>143</v>
       </c>
       <c r="D41">
         <v>1055173</v>
@@ -4069,7 +4069,7 @@
         <v>93.2</v>
       </c>
       <c r="W41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X41">
         <v>3.8</v>
@@ -4083,10 +4083,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" t="s">
         <v>145</v>
-      </c>
-      <c r="C42" t="s">
-        <v>146</v>
       </c>
       <c r="D42">
         <v>4832482</v>
@@ -4146,7 +4146,7 @@
         <v>84</v>
       </c>
       <c r="W42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X42">
         <v>3.7</v>
@@ -4160,10 +4160,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
         <v>148</v>
-      </c>
-      <c r="C43" t="s">
-        <v>149</v>
       </c>
       <c r="D43">
         <v>853175</v>
@@ -4223,7 +4223,7 @@
         <v>91.7</v>
       </c>
       <c r="W43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X43">
         <v>3.6</v>
@@ -4237,10 +4237,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
         <v>151</v>
-      </c>
-      <c r="C44" t="s">
-        <v>152</v>
       </c>
       <c r="D44">
         <v>6549352</v>
@@ -4300,7 +4300,7 @@
         <v>87.4</v>
       </c>
       <c r="W44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X44">
         <v>3.3</v>
@@ -4314,10 +4314,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s">
         <v>154</v>
-      </c>
-      <c r="C45" t="s">
-        <v>155</v>
       </c>
       <c r="D45">
         <v>26956958</v>
@@ -4377,7 +4377,7 @@
         <v>76.3</v>
       </c>
       <c r="W45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X45">
         <v>3.2</v>
@@ -4391,10 +4391,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" t="s">
         <v>156</v>
-      </c>
-      <c r="C46" t="s">
-        <v>157</v>
       </c>
       <c r="D46">
         <v>2942902</v>
@@ -4454,7 +4454,7 @@
         <v>86.8</v>
       </c>
       <c r="W46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X46">
         <v>2.2999999999999998</v>
@@ -4468,10 +4468,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
         <v>159</v>
-      </c>
-      <c r="C47" t="s">
-        <v>160</v>
       </c>
       <c r="D47">
         <v>626562</v>
@@ -4531,7 +4531,7 @@
         <v>94.1</v>
       </c>
       <c r="W47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X47">
         <v>2.9</v>
@@ -4545,10 +4545,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
         <v>162</v>
-      </c>
-      <c r="C48" t="s">
-        <v>163</v>
       </c>
       <c r="D48">
         <v>8326289</v>
@@ -4608,7 +4608,7 @@
         <v>88</v>
       </c>
       <c r="W48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X48">
         <v>2.7</v>
@@ -4622,10 +4622,10 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49">
         <v>7061530</v>
@@ -4685,7 +4685,7 @@
         <v>90.3</v>
       </c>
       <c r="W49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X49">
         <v>2.7</v>
@@ -4699,10 +4699,10 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" t="s">
         <v>167</v>
-      </c>
-      <c r="C50" t="s">
-        <v>168</v>
       </c>
       <c r="D50">
         <v>1850326</v>
@@ -4762,7 +4762,7 @@
         <v>90.9</v>
       </c>
       <c r="W50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X50">
         <v>2.4</v>
@@ -4776,10 +4776,10 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
         <v>170</v>
-      </c>
-      <c r="C51" t="s">
-        <v>171</v>
       </c>
       <c r="D51">
         <v>5757564</v>
@@ -4839,7 +4839,7 @@
         <v>92.6</v>
       </c>
       <c r="W51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X51">
         <v>3</v>
@@ -4853,10 +4853,10 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" t="s">
         <v>173</v>
-      </c>
-      <c r="C52" t="s">
-        <v>174</v>
       </c>
       <c r="D52">
         <v>584153</v>
@@ -4916,7 +4916,7 @@
         <v>86.7</v>
       </c>
       <c r="W52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X52">
         <v>1.9</v>
@@ -4930,10 +4930,10 @@
         <v>72</v>
       </c>
       <c r="B53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" t="s">
         <v>176</v>
-      </c>
-      <c r="C53" t="s">
-        <v>177</v>
       </c>
       <c r="D53">
         <v>3548397</v>
@@ -4993,7 +4993,7 @@
         <v>94.9</v>
       </c>
       <c r="W53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X53">
         <v>3.2</v>
